--- a/Src/Data/Tables/MapDefine.xlsx
+++ b/Src/Data/Tables/MapDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12090" tabRatio="599"/>
+    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>类型</t>
   </si>
@@ -31,6 +31,9 @@
     <t>小地图资源</t>
   </si>
   <si>
+    <t>音乐资源</t>
+  </si>
+  <si>
     <t>技能描述</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>MiniMap</t>
   </si>
   <si>
+    <t>Music</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -82,6 +88,9 @@
     <t>buluzheng</t>
   </si>
   <si>
+    <t>bgm-town</t>
+  </si>
+  <si>
     <t>野外1</t>
   </si>
   <si>
@@ -91,10 +100,16 @@
     <t>luorisenl</t>
   </si>
   <si>
+    <t>bgm-map01</t>
+  </si>
+  <si>
     <t>野外2</t>
   </si>
   <si>
     <t>Map02</t>
+  </si>
+  <si>
+    <t>bgm-map02</t>
   </si>
   <si>
     <t>副本1</t>
@@ -111,8 +126,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -142,22 +157,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -165,25 +164,145 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,27 +316,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -226,121 +339,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -352,79 +367,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,7 +529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,91 +541,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,26 +576,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -592,6 +587,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,8 +627,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,179 +647,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -844,15 +859,15 @@
     <cellStyle name="常规 2 2 5 3 2 2" xfId="1"/>
     <cellStyle name="差 2 2 2" xfId="2"/>
     <cellStyle name="货币[0]" xfId="3" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="4" builtinId="38"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="货币" xfId="6" builtinId="4"/>
-    <cellStyle name="常规 5 4 2 3 2" xfId="7"/>
+    <cellStyle name="常规 5 4 2 3 2" xfId="4"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="5" builtinId="38"/>
+    <cellStyle name="输入" xfId="6" builtinId="20"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="8" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="9" builtinId="39"/>
-    <cellStyle name="差" xfId="10" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="11" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 1 4 2 2" xfId="12"/>
+    <cellStyle name="60% - 强调文字颜色 1 4 2 2" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="10" builtinId="39"/>
+    <cellStyle name="差" xfId="11" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
     <cellStyle name="超链接" xfId="14" builtinId="8"/>
     <cellStyle name="百分比" xfId="15" builtinId="5"/>
@@ -863,44 +878,44 @@
     <cellStyle name="标题 4" xfId="20" builtinId="19"/>
     <cellStyle name="警告文本" xfId="21" builtinId="11"/>
     <cellStyle name="标题" xfId="22" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="23" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="24" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="25" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="26" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="27" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="28" builtinId="44"/>
-    <cellStyle name="输出" xfId="29" builtinId="21"/>
-    <cellStyle name="计算" xfId="30" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="31" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="32" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="33" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="34" builtinId="24"/>
-    <cellStyle name="汇总" xfId="35" builtinId="25"/>
-    <cellStyle name="好" xfId="36" builtinId="26"/>
-    <cellStyle name="适中" xfId="37" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="38" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="39" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="40" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="41" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="42" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="43" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="48" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="49" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="50" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="51" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="52" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="53" builtinId="52"/>
-    <cellStyle name="好 4 2" xfId="54"/>
+    <cellStyle name="好 4 2" xfId="23"/>
+    <cellStyle name="解释性文本" xfId="24" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="26" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="27" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="28" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
+    <cellStyle name="输出" xfId="30" builtinId="21"/>
+    <cellStyle name="计算" xfId="31" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="32" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="33" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="34" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="35" builtinId="24"/>
+    <cellStyle name="汇总" xfId="36" builtinId="25"/>
+    <cellStyle name="好" xfId="37" builtinId="26"/>
+    <cellStyle name="适中" xfId="38" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="39" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="40" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="41" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="42" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="43" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="44" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="45" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="46" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="47" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="48" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
     <cellStyle name="常规 3" xfId="55"/>
     <cellStyle name="常规 7" xfId="56"/>
     <cellStyle name="适中 3" xfId="57"/>
     <cellStyle name="常规 8 3 2" xfId="58"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -990,6 +1005,12 @@
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
       <font>
         <name val="微软雅黑"/>
         <scheme val="none"/>
@@ -1012,9 +1033,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:I7" totalsRowShown="0">
-  <autoFilter ref="A3:I7"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:J7" totalsRowShown="0">
+  <autoFilter ref="A3:J7"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="3" name="ID" dataDxfId="1"/>
     <tableColumn id="5" name="Name" dataDxfId="2"/>
@@ -1023,7 +1044,8 @@
     <tableColumn id="6" name="PKMode" dataDxfId="5"/>
     <tableColumn id="2" name="Resource" dataDxfId="6"/>
     <tableColumn id="7" name="MiniMap" dataDxfId="7"/>
-    <tableColumn id="98" name="Description" dataDxfId="8"/>
+    <tableColumn id="8" name="Music" dataDxfId="8"/>
+    <tableColumn id="98" name="Description" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1316,10 +1338,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="15" outlineLevelRow="6"/>
@@ -1328,12 +1350,12 @@
     <col min="3" max="3" width="22.5714285714286" style="2" customWidth="1"/>
     <col min="4" max="5" width="19.8571428571429" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.2857142857143" style="2" customWidth="1"/>
-    <col min="7" max="8" width="21.2857142857143" style="2" customWidth="1"/>
-    <col min="9" max="9" width="32.5714285714286" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="16.2857142857143" style="4"/>
+    <col min="7" max="9" width="21.2857142857143" style="2" customWidth="1"/>
+    <col min="10" max="10" width="32.5714285714286" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="16.2857142857143" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1355,63 +1377,72 @@
       <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:10">
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:8">
+    <row r="4" s="1" customFormat="1" spans="1:9">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1419,25 +1450,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" s="6" t="b">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:8">
+    <row r="5" s="1" customFormat="1" spans="1:9">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1445,25 +1479,28 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="6" t="b">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:9">
+    <row r="6" s="1" customFormat="1" spans="1:10">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1471,26 +1508,29 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="6" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1498,24 +1538,27 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="6" t="b">
         <v>0</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
